--- a/biology/Biologie cellulaire et moléculaire/KEAP1/KEAP1.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/KEAP1/KEAP1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La protéine Keap1, ou Kelch-like ECH-associated protein 1 en anglais, est une protéine qui, chez l'homme, est codée par le gène KEAP1, situé sur le chromosome 19. Elle est organisée avec quatre domaines protéiques distincts : le domaine N-terminal appelé BTB (pour Broad complex, Tramtrack and Bric-à-Brac) contient le résidu Cys151, l'une des cystéines importantes pour la détection du stress oxydant ; le domaine IVR (pour Intervening Region) contient deux résidus de cystéine critiques, Cys273 et Cys288, qui interviennent également dans la détection du stress ; le domaine DGR (pour Double Glycine Repeat) et le domaine C-terminal CTR (pour C-Terminal Region) contribuent à former une structure en β-propeller permettant à la protéine Keap1 d'interagir avec la protéine Nrf2. Cette dernière est un régulateur essentiel de la réponse antioxydante, déterminante pour contrer le stress oxydant[3],[4],[5].
+La protéine Keap1, ou Kelch-like ECH-associated protein 1 en anglais, est une protéine qui, chez l'homme, est codée par le gène KEAP1, situé sur le chromosome 19. Elle est organisée avec quatre domaines protéiques distincts : le domaine N-terminal appelé BTB (pour Broad complex, Tramtrack and Bric-à-Brac) contient le résidu Cys151, l'une des cystéines importantes pour la détection du stress oxydant ; le domaine IVR (pour Intervening Region) contient deux résidus de cystéine critiques, Cys273 et Cys288, qui interviennent également dans la détection du stress ; le domaine DGR (pour Double Glycine Repeat) et le domaine C-terminal CTR (pour C-Terminal Region) contribuent à former une structure en β-propeller permettant à la protéine Keap1 d'interagir avec la protéine Nrf2. Cette dernière est un régulateur essentiel de la réponse antioxydante, déterminante pour contrer le stress oxydant.
 À l'état quiescent, Nrf2 est ancrée dans le cytoplasme en se liant à la protéine Keap1, laquelle facilite l'ubiquitination et la protéolyse subséquente de Nrf2. Ce mécanisme contribue à l'effet répresseur de Keap1 sur Nrf2. Pour cette raison, et dans la mesure où l'activation de Nrf2 conduit à une réponse antioxydante et anti-inflammatoire coordonnée, Keap1 est une cible intéressante pour le développement de médicaments.
 </t>
         </is>
